--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="98">
   <si>
     <t>Mention JOB Name And Reuse</t>
   </si>
@@ -65,6 +65,252 @@
   </si>
   <si>
     <t>06-12-2022 - 10:57:01</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 13:16:15</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 13:44:18</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 13:55:12</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 14:13:22</t>
+  </si>
+  <si>
+    <t>07 Dec 2022 (W49) 0.00 h</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 15:48:52</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 16:03:55</t>
+  </si>
+  <si>
+    <t>07-12-2022 - 16:16:20</t>
+  </si>
+  <si>
+    <t>08-12-2022 - 10:16:08</t>
+  </si>
+  <si>
+    <t>08 Dec 2022 (W49) 0.00 h</t>
+  </si>
+  <si>
+    <t>08-12-2022 - 11:59:10</t>
+  </si>
+  <si>
+    <t>08-12-2022 - 12:01:54</t>
+  </si>
+  <si>
+    <t>08-12-2022 - 18:52:42</t>
+  </si>
+  <si>
+    <t>11-12-2022 - 12:02:47</t>
+  </si>
+  <si>
+    <t>11 Dec 2022 (W49) 0.00 h</t>
+  </si>
+  <si>
+    <t>11-12-2022 - 12:13:54</t>
+  </si>
+  <si>
+    <t>09-12-2022 - 09:38:00</t>
+  </si>
+  <si>
+    <t>09 Dec 2022 (W49) 0.00 h</t>
+  </si>
+  <si>
+    <t>15-12-2022 - 10:46:22</t>
+  </si>
+  <si>
+    <t>15-12-2022 - 11:23:50</t>
+  </si>
+  <si>
+    <t>15-12-2022 - 21:59:04</t>
+  </si>
+  <si>
+    <t>16-12-2022 - 10:29:56</t>
+  </si>
+  <si>
+    <t>16 Dec 2022 (W50) 7.25 h</t>
+  </si>
+  <si>
+    <t>16-12-2022 - 11:20:26</t>
+  </si>
+  <si>
+    <t>16-12-2022 - 13:45:56</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 11:08:26</t>
+  </si>
+  <si>
+    <t>17 Dec 2022 (W50) 0.00 h</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 12:07:56</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 12:19:46</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 12:57:35</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 13:20:11</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 13:21:32</t>
+  </si>
+  <si>
+    <t>1:22</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 14:05:23</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 14:08:55</t>
+  </si>
+  <si>
+    <t>17-12-2022 - 14:12:05</t>
+  </si>
+  <si>
+    <t>23-12-2022 - 09:28:56</t>
+  </si>
+  <si>
+    <t>23 Dec 2022 (W51) 7.50 h</t>
+  </si>
+  <si>
+    <t>23-12-2022 - 10:22:33</t>
+  </si>
+  <si>
+    <t>25-12-2022 - 14:03:44</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 11:45:30</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:11:52</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:14:33</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:18:10</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:45:28</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:51:34</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:53:14</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:55:54</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 12:59:48</t>
+  </si>
+  <si>
+    <t>26-12-2022 - 13:02:26</t>
+  </si>
+  <si>
+    <t>27-12-2022 - 08:17:21</t>
+  </si>
+  <si>
+    <t>Internal  IT2</t>
+  </si>
+  <si>
+    <t>Project PRJ-1</t>
+  </si>
+  <si>
+    <t>Project PRJ</t>
+  </si>
+  <si>
+    <t>Name: HouseCreation</t>
+  </si>
+  <si>
+    <t>Task-ID: Floor</t>
+  </si>
+  <si>
+    <t>Description: Making</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>I06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 149.00</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 215.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 956.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 281.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,022.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 347.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,088.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 413.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,154.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 741.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 807.00</t>
+  </si>
+  <si>
+    <t>Wed 31-05-2023</t>
+  </si>
+  <si>
+    <t>AUTO KE THROUGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data found </t>
+  </si>
+  <si>
+    <t>Thu 01-06-2023</t>
+  </si>
+  <si>
+    <t>AUTO KE THROUGH76</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Mon 05-06-2023</t>
   </si>
 </sst>
 </file>
@@ -426,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -451,12 +697,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -464,7 +737,10 @@
       </c>
       <c r="B5" s="1"/>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,7 +749,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
